--- a/r5-core-main/StructureDefinition-at-core-practitioner.xlsx
+++ b/r5-core-main/StructureDefinition-at-core-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-26T16:06:09+00:00</t>
+    <t>2024-05-03T09:16:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-core-main/StructureDefinition-at-core-practitioner.xlsx
+++ b/r5-core-main/StructureDefinition-at-core-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T09:16:39+00:00</t>
+    <t>2024-05-03T09:40:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-core-main/StructureDefinition-at-core-practitioner.xlsx
+++ b/r5-core-main/StructureDefinition-at-core-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T09:40:54+00:00</t>
+    <t>2024-05-03T10:09:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-core-main/StructureDefinition-at-core-practitioner.xlsx
+++ b/r5-core-main/StructureDefinition-at-core-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T10:09:53+00:00</t>
+    <t>2024-05-03T10:46:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-core-main/StructureDefinition-at-core-practitioner.xlsx
+++ b/r5-core-main/StructureDefinition-at-core-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T10:46:23+00:00</t>
+    <t>2024-05-06T14:44:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-core-main/StructureDefinition-at-core-practitioner.xlsx
+++ b/r5-core-main/StructureDefinition-at-core-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-06T14:44:22+00:00</t>
+    <t>2024-05-06T14:59:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-core-main/StructureDefinition-at-core-practitioner.xlsx
+++ b/r5-core-main/StructureDefinition-at-core-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-12T10:39:13+00:00</t>
+    <t>2024-10-16T09:04:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1235,7 +1235,7 @@
 The ISO21090-codedString may be used to provide a coded representation of the contents of strings in an Address.</t>
   </si>
   <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R5/location.html#) resource).</t>
   </si>
   <si>
     <t>The home/mailing address of the practitioner is often required for employee administration purposes, and also for some rostering services where the start point (practitioners home) can be used in calculations.</t>
